--- a/TMT-FOOD-FILES/Interns/Recipe Batching.xlsx
+++ b/TMT-FOOD-FILES/Interns/Recipe Batching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\Christine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tmt-project\TMT-FOOD-FILES\Interns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{007C4EDA-7983-4BD8-9099-B7566AD06B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3310A4D6-4B6B-4C78-8B3C-B5236660B599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{011B4E7C-D552-490F-A228-6B64861FEE80}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{011B4E7C-D552-490F-A228-6B64861FEE80}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipe Batching" sheetId="1" r:id="rId1"/>
@@ -236,15 +236,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -252,9 +255,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -276,9 +276,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -316,7 +316,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -422,7 +422,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -564,7 +564,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -576,10 +576,10 @@
     <tabColor theme="7" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,320 +587,272 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="15.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="1"/>
+    <col min="10" max="11" width="16" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="C5" s="8"/>
+      <c r="F5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="J5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="C6" s="4"/>
+      <c r="F6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="J6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>150.87</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="F7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <v>141.44999999999999</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="5">
+        <v>146.63999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>116.46</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>133.91999999999999</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="5">
+        <v>121.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4">
+        <v>10.71</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="5">
+        <v>14.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="F10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4">
+        <v>10.71</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="5">
+        <v>14.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>0.67500000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="F11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="K11" s="5">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5">
         <v>0.67500000000000004</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+      <c r="F12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="6">
+      <c r="K12" s="5">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5">
         <v>0.67500000000000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="F13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.435</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>0.105</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="F15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.105</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="5">
-        <v>141.44999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="5">
-        <v>133.91999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="5">
-        <v>10.71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="5">
-        <v>10.71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="5">
-        <v>1.0649999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="5">
-        <v>0.64500000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="C16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="4">
         <v>0.435</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="5">
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="5">
-        <v>0.435</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="7" t="s">
+      <c r="J16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="10"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="6">
-        <v>146.63999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="6">
-        <v>121.98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="6">
-        <v>14.43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="6">
-        <v>14.43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="6">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="6">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="6">
-        <v>0.22500000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="6">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="6">
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="6">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
+      <c r="G17" s="4"/>
+      <c r="J17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="5"/>
-    </row>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="20" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="74" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/TMT-FOOD-FILES/Interns/Recipe Batching.xlsx
+++ b/TMT-FOOD-FILES/Interns/Recipe Batching.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tmt-project\TMT-FOOD-FILES\Interns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3310A4D6-4B6B-4C78-8B3C-B5236660B599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F9080A9-4574-4565-9CB2-509E37EE1826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{011B4E7C-D552-490F-A228-6B64861FEE80}"/>
   </bookViews>
